--- a/Exercises/Jupyter notebooks/DoctorData.xlsx
+++ b/Exercises/Jupyter notebooks/DoctorData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA48782E-C4C2-4EF8-A883-1A8B9C5DE443}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B8E18B-6C64-4D2B-AB51-0AC72FB30714}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Doctors" sheetId="1" r:id="rId1"/>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,7 +899,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1081,7 +1081,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1226,7 +1226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7830E1F-0A05-491E-846F-85C4D49FD0F4}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
